--- a/Análises Esportivas/ciclos de Netuno/7 - editável_ciclos.xlsx
+++ b/Análises Esportivas/ciclos de Netuno/7 - editável_ciclos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Diretrizes" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="53">
   <si>
     <t xml:space="preserve">Ciclos</t>
   </si>
@@ -153,6 +153,9 @@
     <t xml:space="preserve">Data Fim</t>
   </si>
   <si>
+    <t xml:space="preserve">24-10</t>
+  </si>
+  <si>
     <t xml:space="preserve">Banca Atual</t>
   </si>
   <si>
@@ -176,15 +179,21 @@
   <si>
     <t xml:space="preserve">Saque final</t>
   </si>
+  <si>
+    <t xml:space="preserve">26-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27-10</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
-    <numFmt numFmtId="164" formatCode="0%"/>
-    <numFmt numFmtId="165" formatCode="General"/>
-    <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* \-??_ ;_-@_ "/>
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* \-??_ ;_-@_ "/>
+    <numFmt numFmtId="166" formatCode="0%"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="D/M/YYYY"/>
     <numFmt numFmtId="169" formatCode="0.00%"/>
@@ -366,7 +375,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="39">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -630,12 +639,19 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium"/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="20">
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -659,68 +675,68 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="90">
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+  <cellXfs count="91">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="2" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -760,115 +776,115 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="4" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="4" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="4" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="4" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="5" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="5" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="4" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="4" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="4" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="4" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="4" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="4" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="5" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="5" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="4" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="4" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="5" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="5" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="4" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="4" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="6" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="6" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -876,27 +892,27 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="16" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="16" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -904,7 +920,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="31" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="31" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -920,15 +936,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -936,7 +952,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="34" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="34" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -944,19 +960,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -964,11 +980,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -980,7 +996,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -988,15 +1004,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="4" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="9" fillId="4" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1004,7 +1024,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="21" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="21" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1020,7 +1040,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1036,24 +1056,22 @@
   <dxfs count="1">
     <dxf>
       <font>
-        <name val="Calibri"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <b val="0"/>
+        <b val="1"/>
         <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <color rgb="FF000000"/>
-        <u val="none"/>
+        <color rgb="FFFF0000"/>
       </font>
-      <numFmt numFmtId="164" formatCode="0%"/>
       <fill>
         <patternFill>
-          <bgColor rgb="00FFFFFF"/>
+          <bgColor rgb="FFE2F0D9"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <border diagonalUp="false" diagonalDown="false">
+        <left style="thin"/>
+        <right style="thin"/>
+        <top style="thin"/>
+        <bottom style="thin"/>
+        <diagonal/>
+      </border>
     </dxf>
   </dxfs>
   <colors>
@@ -1352,15 +1370,15 @@
       </c>
       <c r="C8" s="28" t="n">
         <f aca="false">'Ciclo 1'!N5</f>
-        <v>4.46</v>
+        <v>6.57</v>
       </c>
       <c r="D8" s="29" t="n">
         <f aca="false">'Ciclo 2'!N5</f>
-        <v>3</v>
+        <v>6.47</v>
       </c>
       <c r="E8" s="30" t="n">
         <f aca="false">'Ciclo 3'!N5</f>
-        <v>4.5</v>
+        <v>-0.0400000000000009</v>
       </c>
       <c r="F8" s="29" t="n">
         <f aca="false">'Ciclo 4'!N5</f>
@@ -1386,23 +1404,23 @@
       </c>
       <c r="C9" s="24" t="n">
         <f aca="false">C8</f>
-        <v>4.46</v>
+        <v>6.57</v>
       </c>
       <c r="D9" s="25" t="n">
         <f aca="false">C10+D8</f>
-        <v>4.46</v>
+        <v>10.04</v>
       </c>
       <c r="E9" s="26" t="n">
         <f aca="false">C10+D10+E8</f>
-        <v>5.96</v>
+        <v>5.5</v>
       </c>
       <c r="F9" s="25" t="n">
         <f aca="false">C10+D10+E10+F8</f>
-        <v>7.46</v>
+        <v>5.5</v>
       </c>
       <c r="G9" s="27" t="n">
         <f aca="false">C10+D10+E10+F10+G8</f>
-        <v>10.46</v>
+        <v>8.5</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="12" t="n">
@@ -1411,7 +1429,7 @@
       </c>
       <c r="J9" s="12" t="n">
         <f aca="false">SUM(C10:G10)</f>
-        <v>1.46</v>
+        <v>-0.500000000000001</v>
       </c>
       <c r="K9" s="1"/>
     </row>
@@ -1422,15 +1440,15 @@
       </c>
       <c r="C10" s="24" t="n">
         <f aca="false">'Ciclo 1'!Q9</f>
-        <v>1.46</v>
+        <v>3.57</v>
       </c>
       <c r="D10" s="25" t="n">
         <f aca="false">'Ciclo 2'!Q9</f>
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="E10" s="26" t="n">
         <f aca="false">'Ciclo 3'!Q9</f>
-        <v>0</v>
+        <v>-6.04</v>
       </c>
       <c r="F10" s="32" t="n">
         <f aca="false">'Ciclo 4'!Q9</f>
@@ -1586,8 +1604,8 @@
   </sheetPr>
   <dimension ref="B1:Q52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1697,14 +1715,16 @@
       <c r="M3" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="N3" s="52"/>
+      <c r="N3" s="52" t="s">
+        <v>42</v>
+      </c>
       <c r="O3" s="63"/>
       <c r="P3" s="51" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q3" s="64" t="n">
         <f aca="false">SUM(G3:G395)+Q2</f>
-        <v>4.46</v>
+        <v>6.57</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1751,11 +1771,11 @@
       <c r="N4" s="63"/>
       <c r="O4" s="53"/>
       <c r="P4" s="51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q4" s="64" t="n">
         <f aca="false">Q3-Q2</f>
-        <v>1.46</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1799,19 +1819,19 @@
       </c>
       <c r="L5" s="62"/>
       <c r="M5" s="51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N5" s="54" t="n">
         <f aca="false">N6+Q2</f>
-        <v>4.46</v>
+        <v>6.57</v>
       </c>
       <c r="O5" s="53"/>
       <c r="P5" s="51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q5" s="69" t="n">
         <f aca="false">Q3/(Q2)-1</f>
-        <v>0.486666666666667</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1855,11 +1875,11 @@
       </c>
       <c r="L6" s="62"/>
       <c r="M6" s="51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N6" s="64" t="n">
         <f aca="false">SUM(G3:G25)</f>
-        <v>1.46</v>
+        <v>3.57</v>
       </c>
       <c r="O6" s="70"/>
       <c r="P6" s="71"/>
@@ -1885,14 +1905,16 @@
         <f aca="false">D7*J7</f>
         <v>0.163610828086571</v>
       </c>
-      <c r="G7" s="58"/>
+      <c r="G7" s="58" t="n">
+        <v>0.71</v>
+      </c>
       <c r="H7" s="67" t="n">
         <f aca="false">IF(G7=0,,G7/C7)</f>
-        <v>0</v>
+        <v>0.159192825112108</v>
       </c>
       <c r="I7" s="68" t="n">
         <f aca="false">IF(G7=0,,G7-F7)</f>
-        <v>0</v>
+        <v>0.546389171913429</v>
       </c>
       <c r="J7" s="61" t="n">
         <f aca="false">J6*(1-Diretrizes!C$5)</f>
@@ -1904,19 +1926,19 @@
       </c>
       <c r="L7" s="62"/>
       <c r="M7" s="51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N7" s="69" t="n">
         <f aca="false">N5/Q2-1</f>
-        <v>0.486666666666667</v>
+        <v>1.19</v>
       </c>
       <c r="O7" s="70"/>
       <c r="P7" s="51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="72" t="n">
         <f aca="false">SUM(I3:I395)</f>
-        <v>0.839041264491969</v>
+        <v>2.44898029791968</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1925,7 +1947,7 @@
       </c>
       <c r="C8" s="65" t="n">
         <f aca="false">IF(G7&lt;&gt;0,C7+G7,)</f>
-        <v>0</v>
+        <v>5.17</v>
       </c>
       <c r="D8" s="66" t="n">
         <f aca="false">D7*(1+J7)</f>
@@ -1933,20 +1955,22 @@
       </c>
       <c r="E8" s="65" t="n">
         <f aca="false">C8*J8</f>
-        <v>0</v>
+        <v>0.227763236733398</v>
       </c>
       <c r="F8" s="66" t="n">
         <f aca="false">D8*J8</f>
         <v>0.166728397185109</v>
       </c>
-      <c r="G8" s="58"/>
+      <c r="G8" s="58" t="n">
+        <v>0.73</v>
+      </c>
       <c r="H8" s="67" t="n">
         <f aca="false">IF(G8=0,,G8/C8)</f>
-        <v>0</v>
+        <v>0.141199226305609</v>
       </c>
       <c r="I8" s="68" t="n">
         <f aca="false">IF(G8=0,,G8-F8)</f>
-        <v>0</v>
+        <v>0.563271602814891</v>
       </c>
       <c r="J8" s="61" t="n">
         <f aca="false">J7*(1-Diretrizes!C$5)</f>
@@ -1969,7 +1993,7 @@
       </c>
       <c r="C9" s="65" t="n">
         <f aca="false">IF(G8&lt;&gt;0,C8+G8,)</f>
-        <v>0</v>
+        <v>5.9</v>
       </c>
       <c r="D9" s="66" t="n">
         <f aca="false">D8*(1+J8)</f>
@@ -1977,20 +2001,22 @@
       </c>
       <c r="E9" s="65" t="n">
         <f aca="false">C9*J9</f>
-        <v>0</v>
+        <v>0.25342514880249</v>
       </c>
       <c r="F9" s="66" t="n">
         <f aca="false">D9*J9</f>
         <v>0.169721741300606</v>
       </c>
-      <c r="G9" s="58"/>
+      <c r="G9" s="58" t="n">
+        <v>0.67</v>
+      </c>
       <c r="H9" s="67" t="n">
         <f aca="false">IF(G9=0,,G9/C9)</f>
-        <v>0</v>
+        <v>0.113559322033898</v>
       </c>
       <c r="I9" s="68" t="n">
         <f aca="false">IF(G9=0,,G9-F9)</f>
-        <v>0</v>
+        <v>0.500278258699394</v>
       </c>
       <c r="J9" s="61" t="n">
         <f aca="false">J8*(1-Diretrizes!C$5)</f>
@@ -2002,7 +2028,7 @@
       </c>
       <c r="L9" s="62"/>
       <c r="M9" s="51" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N9" s="73" t="n">
         <f aca="false">Diretrizes!C7</f>
@@ -2010,11 +2036,11 @@
       </c>
       <c r="O9" s="53"/>
       <c r="P9" s="51" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q9" s="73" t="n">
         <f aca="false">IF(G3=0,,N5-'Ciclo 2'!Q2)</f>
-        <v>1.46</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2023,7 +2049,7 @@
       </c>
       <c r="C10" s="65" t="n">
         <f aca="false">IF(G9&lt;&gt;0,C9+G9,)</f>
-        <v>0</v>
+        <v>6.57</v>
       </c>
       <c r="D10" s="66" t="n">
         <f aca="false">D9*(1+J9)</f>
@@ -2031,7 +2057,7 @@
       </c>
       <c r="E10" s="65" t="n">
         <f aca="false">C10*J10</f>
-        <v>0</v>
+        <v>0.27514883846467</v>
       </c>
       <c r="F10" s="66" t="n">
         <f aca="false">D10*J10</f>
@@ -2512,7 +2538,8 @@
         <v>0</v>
       </c>
       <c r="D21" s="66" t="n">
-        <v>1</v>
+        <f aca="false">D20*(1+J20)</f>
+        <v>6.14661199889654</v>
       </c>
       <c r="E21" s="65" t="n">
         <f aca="false">C21*J21</f>
@@ -2520,7 +2547,7 @@
       </c>
       <c r="F21" s="66" t="n">
         <f aca="false">D21*J21</f>
-        <v>0.0316995492554425</v>
+        <v>0.194844829813115</v>
       </c>
       <c r="G21" s="58" t="n">
         <v>0</v>
@@ -2539,7 +2566,7 @@
       </c>
       <c r="K21" s="62" t="str">
         <f aca="false">IF(AND(D21&gt;$N$9,D20&lt;$N$9),"OK","NOK")</f>
-        <v>NOK</v>
+        <v>OK</v>
       </c>
       <c r="L21" s="62"/>
       <c r="M21" s="75"/>
@@ -2557,8 +2584,8 @@
         <v>0</v>
       </c>
       <c r="D22" s="66" t="n">
-        <f aca="false">D20*(1+J20)</f>
-        <v>6.14661199889654</v>
+        <f aca="false">D21*(1+J21)</f>
+        <v>6.34145682870966</v>
       </c>
       <c r="E22" s="65" t="n">
         <f aca="false">C22*J22</f>
@@ -2566,7 +2593,7 @@
       </c>
       <c r="F22" s="66" t="n">
         <f aca="false">D22*J22</f>
-        <v>0.189973709067787</v>
+        <v>0.19599579001562</v>
       </c>
       <c r="G22" s="58" t="n">
         <v>0</v>
@@ -2585,7 +2612,7 @@
       </c>
       <c r="K22" s="62" t="str">
         <f aca="false">IF(AND(D22&gt;$N$9,D21&lt;$N$9),"OK","NOK")</f>
-        <v>OK</v>
+        <v>NOK</v>
       </c>
       <c r="L22" s="62"/>
       <c r="M22" s="75"/>
@@ -2604,7 +2631,7 @@
       </c>
       <c r="D23" s="66" t="n">
         <f aca="false">D22*(1+J22)</f>
-        <v>6.33658570796433</v>
+        <v>6.53745261872528</v>
       </c>
       <c r="E23" s="65" t="n">
         <f aca="false">C23*J23</f>
@@ -2612,7 +2639,7 @@
       </c>
       <c r="F23" s="66" t="n">
         <f aca="false">D23*J23</f>
-        <v>0.190949107042126</v>
+        <v>0.197002107666091</v>
       </c>
       <c r="G23" s="58" t="n">
         <v>0</v>
@@ -2650,7 +2677,7 @@
       </c>
       <c r="D24" s="66" t="n">
         <f aca="false">D23*(1+J23)</f>
-        <v>6.52753481500646</v>
+        <v>6.73445472639137</v>
       </c>
       <c r="E24" s="65" t="n">
         <f aca="false">C24*J24</f>
@@ -2658,7 +2685,7 @@
       </c>
       <c r="F24" s="66" t="n">
         <f aca="false">D24*J24</f>
-        <v>0.191785659741275</v>
+        <v>0.197865178708732</v>
       </c>
       <c r="G24" s="58" t="n">
         <v>0</v>
@@ -2696,7 +2723,7 @@
       </c>
       <c r="D25" s="66" t="n">
         <f aca="false">D24*(1+J24)</f>
-        <v>6.71932047474773</v>
+        <v>6.9323199051001</v>
       </c>
       <c r="E25" s="65" t="n">
         <f aca="false">C25*J25</f>
@@ -2704,7 +2731,7 @@
       </c>
       <c r="F25" s="66" t="n">
         <f aca="false">D25*J25</f>
-        <v>0.192485005919459</v>
+        <v>0.198586693845537</v>
       </c>
       <c r="G25" s="58" t="n">
         <v>0</v>
@@ -2742,7 +2769,7 @@
       </c>
       <c r="D26" s="66" t="n">
         <f aca="false">D25*(1+J25)</f>
-        <v>6.91180548066719</v>
+        <v>7.13090659894564</v>
       </c>
       <c r="E26" s="65" t="n">
         <f aca="false">C26*J26</f>
@@ -2750,7 +2777,7 @@
       </c>
       <c r="F26" s="66" t="n">
         <f aca="false">D26*J26</f>
-        <v>0.193049051725362</v>
+        <v>0.199168619649247</v>
       </c>
       <c r="G26" s="58" t="n">
         <v>0</v>
@@ -2788,7 +2815,7 @@
       </c>
       <c r="D27" s="66" t="n">
         <f aca="false">D26*(1+J26)</f>
-        <v>7.10485453239255</v>
+        <v>7.33007521859489</v>
       </c>
       <c r="E27" s="65" t="n">
         <f aca="false">C27*J27</f>
@@ -2796,7 +2823,7 @@
       </c>
       <c r="F27" s="66" t="n">
         <f aca="false">D27*J27</f>
-        <v>0.19347995225161</v>
+        <v>0.19961317952795</v>
       </c>
       <c r="G27" s="58" t="n">
         <v>0</v>
@@ -2834,7 +2861,7 @@
       </c>
       <c r="D28" s="66" t="n">
         <f aca="false">D27*(1+J27)</f>
-        <v>7.29833448464416</v>
+        <v>7.52968839812284</v>
       </c>
       <c r="E28" s="65" t="n">
         <f aca="false">C28*J28</f>
@@ -2842,7 +2869,7 @@
       </c>
       <c r="F28" s="66" t="n">
         <f aca="false">D28*J28</f>
-        <v>0.193780093053006</v>
+        <v>0.199922834657464</v>
       </c>
       <c r="G28" s="58" t="n">
         <v>0</v>
@@ -2880,7 +2907,7 @@
       </c>
       <c r="D29" s="66" t="n">
         <f aca="false">D28*(1+J28)</f>
-        <v>7.49211457769717</v>
+        <v>7.7296112327803</v>
       </c>
       <c r="E29" s="65" t="n">
         <f aca="false">C29*J29</f>
@@ -2888,7 +2915,7 @@
       </c>
       <c r="F29" s="66" t="n">
         <f aca="false">D29*J29</f>
-        <v>0.193952071737392</v>
+        <v>0.200100264988627</v>
       </c>
       <c r="G29" s="58" t="n">
         <v>0</v>
@@ -2926,7 +2953,7 @@
       </c>
       <c r="D30" s="66" t="n">
         <f aca="false">D29*(1+J29)</f>
-        <v>7.68606664943456</v>
+        <v>7.92971149776893</v>
       </c>
       <c r="E30" s="65" t="n">
         <f aca="false">C30*J30</f>
@@ -2934,7 +2961,7 @@
       </c>
       <c r="F30" s="66" t="n">
         <f aca="false">D30*J30</f>
-        <v>0.193998679724145</v>
+        <v>0.200148350427552</v>
       </c>
       <c r="G30" s="58" t="n">
         <v>0</v>
@@ -2962,7 +2989,7 @@
       <c r="P30" s="50"/>
       <c r="Q30" s="75"/>
     </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="55" t="n">
         <v>29</v>
       </c>
@@ -2972,7 +2999,7 @@
       </c>
       <c r="D31" s="66" t="n">
         <f aca="false">D30*(1+J30)</f>
-        <v>7.88006532915871</v>
+        <v>8.12985984819648</v>
       </c>
       <c r="E31" s="65" t="n">
         <f aca="false">C31*J31</f>
@@ -2980,7 +3007,7 @@
       </c>
       <c r="F31" s="66" t="n">
         <f aca="false">D31*J31</f>
-        <v>0.193922884256609</v>
+        <v>0.200070152277859</v>
       </c>
       <c r="G31" s="58" t="n">
         <v>0</v>
@@ -3008,7 +3035,7 @@
       <c r="P31" s="50"/>
       <c r="Q31" s="75"/>
     </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="55" t="n">
         <v>30</v>
       </c>
@@ -3018,7 +3045,7 @@
       </c>
       <c r="D32" s="66" t="n">
         <f aca="false">D31*(1+J31)</f>
-        <v>8.07398821341532</v>
+        <v>8.32993000047434</v>
       </c>
       <c r="E32" s="65" t="n">
         <f aca="false">C32*J32</f>
@@ -3026,7 +3053,7 @@
       </c>
       <c r="F32" s="66" t="n">
         <f aca="false">D32*J32</f>
-        <v>0.193727810746128</v>
+        <v>0.199868895025024</v>
       </c>
       <c r="G32" s="58" t="n">
         <v>0</v>
@@ -3054,7 +3081,7 @@
       <c r="P32" s="50"/>
       <c r="Q32" s="75"/>
     </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="55" t="n">
         <v>31</v>
       </c>
@@ -3064,7 +3091,7 @@
       </c>
       <c r="D33" s="66" t="n">
         <f aca="false">D32*(1+J32)</f>
-        <v>8.26771602416144</v>
+        <v>8.52979889549936</v>
       </c>
       <c r="E33" s="65" t="n">
         <f aca="false">C33*J33</f>
@@ -3072,7 +3099,7 @@
       </c>
       <c r="F33" s="66" t="n">
         <f aca="false">D33*J33</f>
-        <v>0.193416725516882</v>
+        <v>0.19954794853423</v>
       </c>
       <c r="G33" s="58" t="n">
         <v>0</v>
@@ -3100,7 +3127,7 @@
       <c r="P33" s="50"/>
       <c r="Q33" s="75"/>
     </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="55" t="n">
         <v>32</v>
       </c>
@@ -3110,7 +3137,7 @@
       </c>
       <c r="D34" s="66" t="n">
         <f aca="false">D33*(1+J33)</f>
-        <v>8.46113274967832</v>
+        <v>8.72934684403359</v>
       </c>
       <c r="E34" s="65" t="n">
         <f aca="false">C34*J34</f>
@@ -3118,7 +3145,7 @@
       </c>
       <c r="F34" s="66" t="n">
         <f aca="false">D34*J34</f>
-        <v>0.19299301901254</v>
+        <v>0.199110810724684</v>
       </c>
       <c r="G34" s="58" t="n">
         <v>0</v>
@@ -3146,7 +3173,7 @@
       <c r="P34" s="50"/>
       <c r="Q34" s="75"/>
     </row>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="55" t="n">
         <v>33</v>
       </c>
@@ -3156,7 +3183,7 @@
       </c>
       <c r="D35" s="66" t="n">
         <f aca="false">D34*(1+J34)</f>
-        <v>8.65412576869086</v>
+        <v>8.92845765475828</v>
       </c>
       <c r="E35" s="65" t="n">
         <f aca="false">C35*J35</f>
@@ -3164,7 +3191,7 @@
       </c>
       <c r="F35" s="66" t="n">
         <f aca="false">D35*J35</f>
-        <v>0.19246018951782</v>
+        <v>0.198561090775152</v>
       </c>
       <c r="G35" s="58" t="n">
         <v>0</v>
@@ -3192,7 +3219,7 @@
       <c r="P35" s="50"/>
       <c r="Q35" s="75"/>
     </row>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="55" t="n">
         <v>34</v>
       </c>
@@ -3202,7 +3229,7 @@
       </c>
       <c r="D36" s="66" t="n">
         <f aca="false">D35*(1+J35)</f>
-        <v>8.84658595820869</v>
+        <v>9.12701874553343</v>
       </c>
       <c r="E36" s="65" t="n">
         <f aca="false">C36*J36</f>
@@ -3210,7 +3237,7 @@
       </c>
       <c r="F36" s="66" t="n">
         <f aca="false">D36*J36</f>
-        <v>0.191821827440472</v>
+        <v>0.19790249290769</v>
       </c>
       <c r="G36" s="58" t="n">
         <v>0</v>
@@ -3238,7 +3265,7 @@
       <c r="P36" s="50"/>
       <c r="Q36" s="75"/>
     </row>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="55" t="n">
         <v>35</v>
       </c>
@@ -3248,7 +3275,7 @@
       </c>
       <c r="D37" s="66" t="n">
         <f aca="false">D36*(1+J36)</f>
-        <v>9.03840778564916</v>
+        <v>9.32492123844112</v>
       </c>
       <c r="E37" s="65" t="n">
         <f aca="false">C37*J37</f>
@@ -3256,7 +3283,7 @@
       </c>
       <c r="F37" s="66" t="n">
         <f aca="false">D37*J37</f>
-        <v>0.191081600191992</v>
+        <v>0.197138800789087</v>
       </c>
       <c r="G37" s="58" t="n">
         <v>0</v>
@@ -3284,7 +3311,7 @@
       <c r="P37" s="50"/>
       <c r="Q37" s="75"/>
     </row>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="55" t="n">
         <v>36</v>
       </c>
@@ -3294,7 +3321,7 @@
       </c>
       <c r="D38" s="66" t="n">
         <f aca="false">D37*(1+J37)</f>
-        <v>9.22948938584115</v>
+        <v>9.52206003923021</v>
       </c>
       <c r="E38" s="65" t="n">
         <f aca="false">C38*J38</f>
@@ -3302,7 +3329,7 @@
       </c>
       <c r="F38" s="66" t="n">
         <f aca="false">D38*J38</f>
-        <v>0.19024323769853</v>
+        <v>0.19627386258247</v>
       </c>
       <c r="G38" s="58" t="n">
         <v>0</v>
@@ -3330,7 +3357,7 @@
       <c r="P38" s="50"/>
       <c r="Q38" s="75"/>
     </row>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="55" t="n">
         <v>37</v>
       </c>
@@ -3340,7 +3367,7 @@
       </c>
       <c r="D39" s="66" t="n">
         <f aca="false">D38*(1+J38)</f>
-        <v>9.41973262353968</v>
+        <v>9.71833390181268</v>
       </c>
       <c r="E39" s="65" t="n">
         <f aca="false">C39*J39</f>
@@ -3348,7 +3375,7 @@
       </c>
       <c r="F39" s="66" t="n">
         <f aca="false">D39*J39</f>
-        <v>0.189310518567058</v>
+        <v>0.195311576674948</v>
       </c>
       <c r="G39" s="58" t="n">
         <v>0</v>
@@ -3376,7 +3403,7 @@
       <c r="P39" s="50"/>
       <c r="Q39" s="75"/>
     </row>
-    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="55" t="n">
         <v>38</v>
       </c>
@@ -3386,7 +3413,7 @@
       </c>
       <c r="D40" s="66" t="n">
         <f aca="false">D39*(1+J39)</f>
-        <v>9.60904314210674</v>
+        <v>9.91364547848763</v>
       </c>
       <c r="E40" s="65" t="n">
         <f aca="false">C40*J40</f>
@@ -3394,7 +3421,7 @@
       </c>
       <c r="F40" s="66" t="n">
         <f aca="false">D40*J40</f>
-        <v>0.18828725692586</v>
+        <v>0.194255878100953</v>
       </c>
       <c r="G40" s="58" t="n">
         <v>0</v>
@@ -3422,7 +3449,7 @@
       <c r="P40" s="50"/>
       <c r="Q40" s="75"/>
     </row>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="55" t="n">
         <v>39</v>
       </c>
@@ -3432,7 +3459,7 @@
       </c>
       <c r="D41" s="66" t="n">
         <f aca="false">D40*(1+J40)</f>
-        <v>9.7973303990326</v>
+        <v>10.1079013565886</v>
       </c>
       <c r="E41" s="65" t="n">
         <f aca="false">C41*J41</f>
@@ -3440,7 +3467,7 @@
       </c>
       <c r="F41" s="66" t="n">
         <f aca="false">D41*J41</f>
-        <v>0.187177289952837</v>
+        <v>0.193110725675197</v>
       </c>
       <c r="G41" s="58" t="n">
         <v>0</v>
@@ -3468,7 +3495,7 @@
       <c r="P41" s="50"/>
       <c r="Q41" s="75"/>
     </row>
-    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="55" t="n">
         <v>40</v>
       </c>
@@ -3478,7 +3505,7 @@
       </c>
       <c r="D42" s="66" t="n">
         <f aca="false">D41*(1+J41)</f>
-        <v>9.98450768898543</v>
+        <v>10.3010120822638</v>
       </c>
       <c r="E42" s="65" t="n">
         <f aca="false">C42*J42</f>
@@ -3486,7 +3513,7 @@
       </c>
       <c r="F42" s="66" t="n">
         <f aca="false">D42*J42</f>
-        <v>0.185984466099973</v>
+        <v>0.191880089843857</v>
       </c>
       <c r="G42" s="58" t="n">
         <v>0</v>
@@ -3514,7 +3541,7 @@
       <c r="P42" s="50"/>
       <c r="Q42" s="75"/>
     </row>
-    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="55" t="n">
         <v>41</v>
       </c>
@@ -3524,7 +3551,7 @@
       </c>
       <c r="D43" s="66" t="n">
         <f aca="false">D42*(1+J42)</f>
-        <v>10.1704921550854</v>
+        <v>10.4928921721076</v>
       </c>
       <c r="E43" s="65" t="n">
         <f aca="false">C43*J43</f>
@@ -3532,7 +3559,7 @@
       </c>
       <c r="F43" s="66" t="n">
         <f aca="false">D43*J43</f>
-        <v>0.184712634017611</v>
+        <v>0.190567941257755</v>
       </c>
       <c r="G43" s="58" t="n">
         <v>0</v>
@@ -3560,7 +3587,7 @@
       <c r="P43" s="50"/>
       <c r="Q43" s="75"/>
     </row>
-    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="55" t="n">
         <v>42</v>
       </c>
@@ -3570,7 +3597,7 @@
       </c>
       <c r="D44" s="66" t="n">
         <f aca="false">D43*(1+J43)</f>
-        <v>10.355204789103</v>
+        <v>10.6834601133654</v>
       </c>
       <c r="E44" s="65" t="n">
         <f aca="false">C44*J44</f>
@@ -3578,7 +3605,7 @@
       </c>
       <c r="F44" s="66" t="n">
         <f aca="false">D44*J44</f>
-        <v>0.183365632177872</v>
+        <v>0.18917824006685</v>
       </c>
       <c r="G44" s="58" t="n">
         <v>0</v>
@@ -3606,7 +3633,7 @@
       <c r="P44" s="50"/>
       <c r="Q44" s="75"/>
     </row>
-    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="55" t="n">
         <v>43</v>
       </c>
@@ -3616,7 +3643,7 @@
       </c>
       <c r="D45" s="66" t="n">
         <f aca="false">D44*(1+J44)</f>
-        <v>10.5385704212809</v>
+        <v>10.8726383534322</v>
       </c>
       <c r="E45" s="65" t="n">
         <f aca="false">C45*J45</f>
@@ -3624,7 +3651,7 @@
       </c>
       <c r="F45" s="66" t="n">
         <f aca="false">D45*J45</f>
-        <v>0.181947279192695</v>
+        <v>0.187714925931358</v>
       </c>
       <c r="G45" s="58" t="n">
         <v>0</v>
@@ -3652,7 +3679,7 @@
       <c r="P45" s="50"/>
       <c r="Q45" s="75"/>
     </row>
-    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="55" t="n">
         <v>44</v>
       </c>
@@ -3662,7 +3689,7 @@
       </c>
       <c r="D46" s="66" t="n">
         <f aca="false">D45*(1+J45)</f>
-        <v>10.7205177004736</v>
+        <v>11.0603532793636</v>
       </c>
       <c r="E46" s="65" t="n">
         <f aca="false">C46*J46</f>
@@ -3670,7 +3697,7 @@
       </c>
       <c r="F46" s="66" t="n">
         <f aca="false">D46*J46</f>
-        <v>0.180461364818464</v>
+        <v>0.186181908741231</v>
       </c>
       <c r="G46" s="58" t="n">
         <v>0</v>
@@ -3698,7 +3725,7 @@
       <c r="P46" s="50"/>
       <c r="Q46" s="75"/>
     </row>
-    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="55" t="n">
         <v>45</v>
       </c>
@@ -3708,7 +3735,7 @@
       </c>
       <c r="D47" s="66" t="n">
         <f aca="false">D46*(1+J46)</f>
-        <v>10.9009790652921</v>
+        <v>11.2465351881048</v>
       </c>
       <c r="E47" s="65" t="n">
         <f aca="false">C47*J47</f>
@@ -3716,7 +3743,7 @@
       </c>
       <c r="F47" s="66" t="n">
         <f aca="false">D47*J47</f>
-        <v>0.1789116416361</v>
+        <v>0.184583060032516</v>
       </c>
       <c r="G47" s="58" t="n">
         <v>0</v>
@@ -3744,7 +3771,7 @@
       <c r="P47" s="50"/>
       <c r="Q47" s="75"/>
     </row>
-    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="55" t="n">
         <v>46</v>
       </c>
@@ -3754,7 +3781,7 @@
       </c>
       <c r="D48" s="66" t="n">
         <f aca="false">D47*(1+J47)</f>
-        <v>11.0798907069281</v>
+        <v>11.4311182481373</v>
       </c>
       <c r="E48" s="65" t="n">
         <f aca="false">C48*J48</f>
@@ -3762,7 +3789,7 @@
       </c>
       <c r="F48" s="66" t="n">
         <f aca="false">D48*J48</f>
-        <v>0.177301817392783</v>
+        <v>0.182922205086305</v>
       </c>
       <c r="G48" s="58" t="n">
         <v>0</v>
@@ -3790,7 +3817,7 @@
       <c r="P48" s="50"/>
       <c r="Q48" s="75"/>
     </row>
-    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="55" t="n">
         <v>47</v>
       </c>
@@ -3800,7 +3827,7 @@
       </c>
       <c r="D49" s="66" t="n">
         <f aca="false">D48*(1+J48)</f>
-        <v>11.2571925243209</v>
+        <v>11.6140404532236</v>
       </c>
       <c r="E49" s="65" t="n">
         <f aca="false">C49*J49</f>
@@ -3808,7 +3835,7 @@
       </c>
       <c r="F49" s="66" t="n">
         <f aca="false">D49*J49</f>
-        <v>0.175635547989039</v>
+        <v>0.181203115693524</v>
       </c>
       <c r="G49" s="58" t="n">
         <v>0</v>
@@ -3836,7 +3863,7 @@
       <c r="P49" s="50"/>
       <c r="Q49" s="75"/>
     </row>
-    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="55" t="n">
         <v>48</v>
       </c>
@@ -3846,7 +3873,7 @@
       </c>
       <c r="D50" s="66" t="n">
         <f aca="false">D49*(1+J49)</f>
-        <v>11.43282807231</v>
+        <v>11.7952435689172</v>
       </c>
       <c r="E50" s="65" t="n">
         <f aca="false">C50*J50</f>
@@ -3854,7 +3881,7 @@
       </c>
       <c r="F50" s="66" t="n">
         <f aca="false">D50*J50</f>
-        <v>0.17391643109294</v>
+        <v>0.179429503566701</v>
       </c>
       <c r="G50" s="58" t="n">
         <v>0</v>
@@ -3882,7 +3909,7 @@
       <c r="P50" s="50"/>
       <c r="Q50" s="75"/>
     </row>
-    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="55" t="n">
         <v>49</v>
       </c>
@@ -3892,7 +3919,7 @@
       </c>
       <c r="D51" s="66" t="n">
         <f aca="false">D50*(1+J50)</f>
-        <v>11.6067445034029</v>
+        <v>11.9746730724839</v>
       </c>
       <c r="E51" s="65" t="n">
         <f aca="false">C51*J51</f>
@@ -3900,7 +3927,7 @@
       </c>
       <c r="F51" s="66" t="n">
         <f aca="false">D51*J51</f>
-        <v>0.172148000361365</v>
+        <v>0.177605014378046</v>
       </c>
       <c r="G51" s="58" t="n">
         <v>0</v>
@@ -3928,7 +3955,7 @@
       <c r="P51" s="50"/>
       <c r="Q51" s="75"/>
     </row>
-    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="81" t="n">
         <v>50</v>
       </c>
@@ -3938,24 +3965,24 @@
       </c>
       <c r="D52" s="82" t="n">
         <f aca="false">D51*(1+J51)</f>
-        <v>11.7788925037643</v>
+        <v>12.1522780868619</v>
       </c>
       <c r="E52" s="83" t="n">
         <f aca="false">C52*J52</f>
         <v>0</v>
       </c>
-      <c r="F52" s="82" t="n">
+      <c r="F52" s="84" t="n">
         <f aca="false">D52*J52</f>
-        <v>0.170333720246879</v>
+        <v>0.175733222401707</v>
       </c>
       <c r="G52" s="58" t="n">
         <v>0</v>
       </c>
-      <c r="H52" s="84" t="n">
+      <c r="H52" s="85" t="n">
         <f aca="false">IF(G52=0,,G52/C52)</f>
         <v>0</v>
       </c>
-      <c r="I52" s="85" t="n">
+      <c r="I52" s="86" t="n">
         <f aca="false">IF(G52=0,,G52-F52)</f>
         <v>0</v>
       </c>
@@ -3992,7 +4019,7 @@
   <dimension ref="B1:Q52"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N3" activeCellId="0" sqref="N3"/>
+      <selection pane="topLeft" activeCell="N4" activeCellId="0" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4058,7 +4085,9 @@
       <c r="M2" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="N2" s="86"/>
+      <c r="N2" s="87" t="s">
+        <v>42</v>
+      </c>
       <c r="O2" s="53"/>
       <c r="P2" s="51" t="s">
         <v>40</v>
@@ -4087,32 +4116,36 @@
         <f aca="false">D3*J3</f>
         <v>0.15</v>
       </c>
-      <c r="G3" s="58"/>
+      <c r="G3" s="58" t="n">
+        <v>0.84</v>
+      </c>
       <c r="H3" s="59" t="n">
         <f aca="false">IF(G3=0,,G3/C3)</f>
-        <v>0</v>
+        <v>0.28</v>
       </c>
       <c r="I3" s="60" t="n">
         <f aca="false">G3-F3</f>
-        <v>-0.15</v>
+        <v>0.69</v>
       </c>
       <c r="J3" s="61" t="n">
         <f aca="false">Diretrizes!D4</f>
         <v>0.05</v>
       </c>
       <c r="K3" s="62"/>
-      <c r="L3" s="87"/>
+      <c r="L3" s="88"/>
       <c r="M3" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="N3" s="86"/>
+      <c r="N3" s="87" t="s">
+        <v>51</v>
+      </c>
       <c r="O3" s="63"/>
       <c r="P3" s="51" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q3" s="64" t="n">
         <f aca="false">SUM(G3:G402)+Q2</f>
-        <v>3</v>
+        <v>6.47</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4121,7 +4154,7 @@
       </c>
       <c r="C4" s="65" t="n">
         <f aca="false">IF(G3&lt;&gt;0,C3+G3,)</f>
-        <v>0</v>
+        <v>3.84</v>
       </c>
       <c r="D4" s="66" t="n">
         <f aca="false">D3*(1+J3)</f>
@@ -4129,20 +4162,22 @@
       </c>
       <c r="E4" s="65" t="n">
         <f aca="false">C4*J4</f>
-        <v>0</v>
+        <v>0.1872</v>
       </c>
       <c r="F4" s="66" t="n">
         <f aca="false">D4*J4</f>
         <v>0.1535625</v>
       </c>
-      <c r="G4" s="58"/>
+      <c r="G4" s="58" t="n">
+        <v>0.2</v>
+      </c>
       <c r="H4" s="67" t="n">
         <f aca="false">IF(G4=0,,G4/C4)</f>
-        <v>0</v>
+        <v>0.0520833333333333</v>
       </c>
       <c r="I4" s="68" t="n">
         <f aca="false">IF(G4=0,,G4-F4)</f>
-        <v>0</v>
+        <v>0.0464375</v>
       </c>
       <c r="J4" s="61" t="n">
         <f aca="false">J3*(1-Diretrizes!D$5)</f>
@@ -4152,16 +4187,16 @@
         <f aca="false">IF(AND(D4&gt;$N$9,D3&lt;$N$9),"OK","NOK")</f>
         <v>NOK</v>
       </c>
-      <c r="L4" s="87"/>
+      <c r="L4" s="88"/>
       <c r="M4" s="63"/>
       <c r="N4" s="63"/>
       <c r="O4" s="53"/>
       <c r="P4" s="51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q4" s="64" t="n">
         <f aca="false">Q3-Q2</f>
-        <v>0</v>
+        <v>3.47</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4170,7 +4205,7 @@
       </c>
       <c r="C5" s="65" t="n">
         <f aca="false">IF(G4&lt;&gt;0,C4+G4,)</f>
-        <v>0</v>
+        <v>4.04</v>
       </c>
       <c r="D5" s="66" t="n">
         <f aca="false">D4*(1+J4)</f>
@@ -4178,20 +4213,22 @@
       </c>
       <c r="E5" s="65" t="n">
         <f aca="false">C5*J5</f>
-        <v>0</v>
+        <v>0.19202625</v>
       </c>
       <c r="F5" s="66" t="n">
         <f aca="false">D5*J5</f>
         <v>0.157022455078125</v>
       </c>
-      <c r="G5" s="58"/>
+      <c r="G5" s="58" t="n">
+        <v>0.24</v>
+      </c>
       <c r="H5" s="67" t="n">
         <f aca="false">IF(G5=0,,G5/C5)</f>
-        <v>0</v>
+        <v>0.0594059405940594</v>
       </c>
       <c r="I5" s="68" t="n">
         <f aca="false">IF(G5=0,,G5-F5)</f>
-        <v>0</v>
+        <v>0.082977544921875</v>
       </c>
       <c r="J5" s="61" t="n">
         <f aca="false">J4*(1-Diretrizes!D$5)</f>
@@ -4201,21 +4238,21 @@
         <f aca="false">IF(AND(D5&gt;$N$9,D4&lt;$N$9),"OK","NOK")</f>
         <v>NOK</v>
       </c>
-      <c r="L5" s="87"/>
+      <c r="L5" s="88"/>
       <c r="M5" s="51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N5" s="54" t="n">
         <f aca="false">N6+Q2</f>
-        <v>3</v>
+        <v>6.47</v>
       </c>
       <c r="O5" s="53"/>
       <c r="P5" s="51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q5" s="69" t="n">
         <f aca="false">Q3/(Q2)-1</f>
-        <v>0</v>
+        <v>1.15666666666667</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4224,7 +4261,7 @@
       </c>
       <c r="C6" s="65" t="n">
         <f aca="false">IF(G5&lt;&gt;0,C5+G5,)</f>
-        <v>0</v>
+        <v>4.28</v>
       </c>
       <c r="D6" s="66" t="n">
         <f aca="false">D5*(1+J5)</f>
@@ -4232,20 +4269,22 @@
       </c>
       <c r="E6" s="65" t="n">
         <f aca="false">C6*J6</f>
-        <v>0</v>
+        <v>0.19834790625</v>
       </c>
       <c r="F6" s="66" t="n">
         <f aca="false">D6*J6</f>
         <v>0.160373780429906</v>
       </c>
-      <c r="G6" s="58"/>
+      <c r="G6" s="58" t="n">
+        <v>-2.81</v>
+      </c>
       <c r="H6" s="67" t="n">
         <f aca="false">IF(G6=0,,G6/C6)</f>
-        <v>0</v>
+        <v>-0.656542056074766</v>
       </c>
       <c r="I6" s="68" t="n">
         <f aca="false">IF(G6=0,,G6-F6)</f>
-        <v>0</v>
+        <v>-2.97037378042991</v>
       </c>
       <c r="J6" s="61" t="n">
         <f aca="false">J5*(1-Diretrizes!D$5)</f>
@@ -4255,13 +4294,13 @@
         <f aca="false">IF(AND(D6&gt;$N$9,D5&lt;$N$9),"OK","NOK")</f>
         <v>NOK</v>
       </c>
-      <c r="L6" s="87"/>
+      <c r="L6" s="88"/>
       <c r="M6" s="51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N6" s="64" t="n">
         <f aca="false">SUM(G3:G25)</f>
-        <v>0</v>
+        <v>3.47</v>
       </c>
       <c r="O6" s="70"/>
       <c r="P6" s="71"/>
@@ -4273,7 +4312,7 @@
       </c>
       <c r="C7" s="65" t="n">
         <f aca="false">IF(G6&lt;&gt;0,C6+G6,)</f>
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="D7" s="66" t="n">
         <f aca="false">D6*(1+J6)</f>
@@ -4281,20 +4320,22 @@
       </c>
       <c r="E7" s="65" t="n">
         <f aca="false">C7*J7</f>
-        <v>0</v>
+        <v>0.0664210599609375</v>
       </c>
       <c r="F7" s="66" t="n">
         <f aca="false">D7*J7</f>
         <v>0.163610828086571</v>
       </c>
-      <c r="G7" s="58"/>
+      <c r="G7" s="58" t="n">
+        <v>2.38</v>
+      </c>
       <c r="H7" s="67" t="n">
         <f aca="false">IF(G7=0,,G7/C7)</f>
-        <v>0</v>
+        <v>1.61904761904762</v>
       </c>
       <c r="I7" s="68" t="n">
         <f aca="false">IF(G7=0,,G7-F7)</f>
-        <v>0</v>
+        <v>2.21638917191343</v>
       </c>
       <c r="J7" s="61" t="n">
         <f aca="false">J6*(1-Diretrizes!D$5)</f>
@@ -4304,21 +4345,21 @@
         <f aca="false">IF(AND(D7&gt;$N$9,D6&lt;$N$9),"OK","NOK")</f>
         <v>NOK</v>
       </c>
-      <c r="L7" s="87"/>
+      <c r="L7" s="88"/>
       <c r="M7" s="51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N7" s="69" t="n">
         <f aca="false">N5/Q2-1</f>
-        <v>0</v>
+        <v>1.15666666666667</v>
       </c>
       <c r="O7" s="70"/>
       <c r="P7" s="51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="72" t="n">
         <f aca="false">SUM(I3:I402)</f>
-        <v>-0.15</v>
+        <v>1.46009366419925</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4327,7 +4368,7 @@
       </c>
       <c r="C8" s="65" t="n">
         <f aca="false">IF(G7&lt;&gt;0,C7+G7,)</f>
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="D8" s="66" t="n">
         <f aca="false">D7*(1+J7)</f>
@@ -4335,20 +4376,22 @@
       </c>
       <c r="E8" s="65" t="n">
         <f aca="false">C8*J8</f>
-        <v>0</v>
+        <v>0.16961092097168</v>
       </c>
       <c r="F8" s="66" t="n">
         <f aca="false">D8*J8</f>
         <v>0.166728397185108</v>
       </c>
-      <c r="G8" s="58"/>
+      <c r="G8" s="58" t="n">
+        <v>0.41</v>
+      </c>
       <c r="H8" s="67" t="n">
         <f aca="false">IF(G8=0,,G8/C8)</f>
-        <v>0</v>
+        <v>0.106493506493506</v>
       </c>
       <c r="I8" s="68" t="n">
         <f aca="false">IF(G8=0,,G8-F8)</f>
-        <v>0</v>
+        <v>0.243271602814892</v>
       </c>
       <c r="J8" s="61" t="n">
         <f aca="false">J7*(1-Diretrizes!D$5)</f>
@@ -4358,7 +4401,7 @@
         <f aca="false">IF(AND(D8&gt;$N$9,D7&lt;$N$9),"OK","NOK")</f>
         <v>NOK</v>
       </c>
-      <c r="L8" s="87"/>
+      <c r="L8" s="88"/>
       <c r="M8" s="71"/>
       <c r="N8" s="71"/>
       <c r="O8" s="53"/>
@@ -4371,7 +4414,7 @@
       </c>
       <c r="C9" s="65" t="n">
         <f aca="false">IF(G8&lt;&gt;0,C8+G8,)</f>
-        <v>0</v>
+        <v>4.26</v>
       </c>
       <c r="D9" s="66" t="n">
         <f aca="false">D8*(1+J8)</f>
@@ -4379,20 +4422,22 @@
       </c>
       <c r="E9" s="65" t="n">
         <f aca="false">C9*J9</f>
-        <v>0</v>
+        <v>0.182981548118408</v>
       </c>
       <c r="F9" s="66" t="n">
         <f aca="false">D9*J9</f>
         <v>0.169721741300606</v>
       </c>
-      <c r="G9" s="58"/>
+      <c r="G9" s="58" t="n">
+        <v>0.17</v>
+      </c>
       <c r="H9" s="67" t="n">
         <f aca="false">IF(G9=0,,G9/C9)</f>
-        <v>0</v>
+        <v>0.039906103286385</v>
       </c>
       <c r="I9" s="68" t="n">
         <f aca="false">IF(G9=0,,G9-F9)</f>
-        <v>0</v>
+        <v>0.000278258699393991</v>
       </c>
       <c r="J9" s="61" t="n">
         <f aca="false">J8*(1-Diretrizes!D$5)</f>
@@ -4402,9 +4447,9 @@
         <f aca="false">IF(AND(D9&gt;$N$9,D8&lt;$N$9),"OK","NOK")</f>
         <v>NOK</v>
       </c>
-      <c r="L9" s="87"/>
+      <c r="L9" s="88"/>
       <c r="M9" s="51" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N9" s="73" t="n">
         <f aca="false">Diretrizes!D7</f>
@@ -4412,11 +4457,11 @@
       </c>
       <c r="O9" s="53"/>
       <c r="P9" s="51" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q9" s="73" t="n">
         <f aca="false">IF(G3=0,,N5-'Ciclo 3'!Q2)</f>
-        <v>0</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4425,7 +4470,7 @@
       </c>
       <c r="C10" s="65" t="n">
         <f aca="false">IF(G9&lt;&gt;0,C9+G9,)</f>
-        <v>0</v>
+        <v>4.43</v>
       </c>
       <c r="D10" s="66" t="n">
         <f aca="false">D9*(1+J9)</f>
@@ -4433,20 +4478,22 @@
       </c>
       <c r="E10" s="65" t="n">
         <f aca="false">C10*J10</f>
-        <v>0</v>
+        <v>0.185526537960196</v>
       </c>
       <c r="F10" s="66" t="n">
         <f aca="false">D10*J10</f>
         <v>0.172586572955467</v>
       </c>
-      <c r="G10" s="58"/>
+      <c r="G10" s="58" t="n">
+        <v>0.37</v>
+      </c>
       <c r="H10" s="67" t="n">
         <f aca="false">IF(G10=0,,G10/C10)</f>
-        <v>0</v>
+        <v>0.0835214446952596</v>
       </c>
       <c r="I10" s="68" t="n">
         <f aca="false">IF(G10=0,,G10-F10)</f>
-        <v>0</v>
+        <v>0.197413427044533</v>
       </c>
       <c r="J10" s="61" t="n">
         <f aca="false">J9*(1-Diretrizes!D$5)</f>
@@ -4466,7 +4513,7 @@
       </c>
       <c r="C11" s="65" t="n">
         <f aca="false">IF(G10&lt;&gt;0,C10+G10,)</f>
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="D11" s="66" t="n">
         <f aca="false">D10*(1+J10)</f>
@@ -4474,20 +4521,22 @@
       </c>
       <c r="E11" s="65" t="n">
         <f aca="false">C11*J11</f>
-        <v>0</v>
+        <v>0.195996432878943</v>
       </c>
       <c r="F11" s="66" t="n">
         <f aca="false">D11*J11</f>
         <v>0.175319065436179</v>
       </c>
-      <c r="G11" s="58"/>
+      <c r="G11" s="58" t="n">
+        <v>0.43</v>
+      </c>
       <c r="H11" s="67" t="n">
         <f aca="false">IF(G11=0,,G11/C11)</f>
-        <v>0</v>
+        <v>0.0895833333333333</v>
       </c>
       <c r="I11" s="68" t="n">
         <f aca="false">IF(G11=0,,G11-F11)</f>
-        <v>0</v>
+        <v>0.254680934563821</v>
       </c>
       <c r="J11" s="61" t="n">
         <f aca="false">J10*(1-Diretrizes!D$5)</f>
@@ -4510,7 +4559,7 @@
       </c>
       <c r="C12" s="65" t="n">
         <f aca="false">IF(G11&lt;&gt;0,C11+G11,)</f>
-        <v>0</v>
+        <v>5.23</v>
       </c>
       <c r="D12" s="66" t="n">
         <f aca="false">D11*(1+J11)</f>
@@ -4518,20 +4567,22 @@
       </c>
       <c r="E12" s="65" t="n">
         <f aca="false">C12*J12</f>
-        <v>0</v>
+        <v>0.20821558549124</v>
       </c>
       <c r="F12" s="66" t="n">
         <f aca="false">D12*J12</f>
         <v>0.17791585206176</v>
       </c>
-      <c r="G12" s="58"/>
+      <c r="G12" s="58" t="n">
+        <v>0.37</v>
+      </c>
       <c r="H12" s="67" t="n">
         <f aca="false">IF(G12=0,,G12/C12)</f>
-        <v>0</v>
+        <v>0.0707456978967495</v>
       </c>
       <c r="I12" s="68" t="n">
         <f aca="false">IF(G12=0,,G12-F12)</f>
-        <v>0</v>
+        <v>0.19208414793824</v>
       </c>
       <c r="J12" s="61" t="n">
         <f aca="false">J11*(1-Diretrizes!D$5)</f>
@@ -4554,7 +4605,7 @@
       </c>
       <c r="C13" s="65" t="n">
         <f aca="false">IF(G12&lt;&gt;0,C12+G12,)</f>
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="D13" s="66" t="n">
         <f aca="false">D12*(1+J12)</f>
@@ -4562,20 +4613,22 @@
       </c>
       <c r="E13" s="65" t="n">
         <f aca="false">C13*J13</f>
-        <v>0</v>
+        <v>0.217372293839803</v>
       </c>
       <c r="F13" s="66" t="n">
         <f aca="false">D13*J13</f>
         <v>0.180374023058989</v>
       </c>
-      <c r="G13" s="58"/>
+      <c r="G13" s="58" t="n">
+        <v>0.03</v>
+      </c>
       <c r="H13" s="67" t="n">
         <f aca="false">IF(G13=0,,G13/C13)</f>
-        <v>0</v>
+        <v>0.00535714285714286</v>
       </c>
       <c r="I13" s="68" t="n">
         <f aca="false">IF(G13=0,,G13-F13)</f>
-        <v>0</v>
+        <v>-0.150374023058989</v>
       </c>
       <c r="J13" s="61" t="n">
         <f aca="false">J12*(1-Diretrizes!D$5)</f>
@@ -4598,7 +4651,7 @@
       </c>
       <c r="C14" s="65" t="n">
         <f aca="false">IF(G13&lt;&gt;0,C13+G13,)</f>
-        <v>0</v>
+        <v>5.63</v>
       </c>
       <c r="D14" s="66" t="n">
         <f aca="false">D13*(1+J13)</f>
@@ -4606,20 +4659,22 @@
       </c>
       <c r="E14" s="65" t="n">
         <f aca="false">C14*J14</f>
-        <v>0</v>
+        <v>0.21307336856431</v>
       </c>
       <c r="F14" s="66" t="n">
         <f aca="false">D14*J14</f>
         <v>0.182691120208034</v>
       </c>
-      <c r="G14" s="58"/>
+      <c r="G14" s="58" t="n">
+        <v>0.84</v>
+      </c>
       <c r="H14" s="67" t="n">
         <f aca="false">IF(G14=0,,G14/C14)</f>
-        <v>0</v>
+        <v>0.149200710479574</v>
       </c>
       <c r="I14" s="68" t="n">
         <f aca="false">IF(G14=0,,G14-F14)</f>
-        <v>0</v>
+        <v>0.657308879791966</v>
       </c>
       <c r="J14" s="61" t="n">
         <f aca="false">J13*(1-Diretrizes!D$5)</f>
@@ -4642,7 +4697,7 @@
       </c>
       <c r="C15" s="65" t="n">
         <f aca="false">IF(G14&lt;&gt;0,C14+G14,)</f>
-        <v>0</v>
+        <v>6.47</v>
       </c>
       <c r="D15" s="66" t="n">
         <f aca="false">D14*(1+J14)</f>
@@ -4650,7 +4705,7 @@
       </c>
       <c r="E15" s="65" t="n">
         <f aca="false">C15*J15</f>
-        <v>0</v>
+        <v>0.238742464874922</v>
       </c>
       <c r="F15" s="66" t="n">
         <f aca="false">D15*J15</f>
@@ -6339,7 +6394,7 @@
         <f aca="false">IF(G51&lt;&gt;0,C51+G51,)</f>
         <v>0</v>
       </c>
-      <c r="D52" s="82" t="n">
+      <c r="D52" s="84" t="n">
         <f aca="false">D51*(1+J51)</f>
         <v>12.1522780868619</v>
       </c>
@@ -6347,18 +6402,18 @@
         <f aca="false">C52*J52</f>
         <v>0</v>
       </c>
-      <c r="F52" s="82" t="n">
+      <c r="F52" s="84" t="n">
         <f aca="false">D52*J52</f>
         <v>0.175733222401707</v>
       </c>
       <c r="G52" s="58" t="n">
         <v>0</v>
       </c>
-      <c r="H52" s="84" t="n">
+      <c r="H52" s="85" t="n">
         <f aca="false">IF(G52=0,,G52/C52)</f>
         <v>0</v>
       </c>
-      <c r="I52" s="85" t="n">
+      <c r="I52" s="86" t="n">
         <f aca="false">IF(G52=0,,G52-F52)</f>
         <v>0</v>
       </c>
@@ -6391,8 +6446,8 @@
   </sheetPr>
   <dimension ref="B1:Q52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N3" activeCellId="0" sqref="N3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6451,7 +6506,9 @@
       <c r="M2" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="N2" s="86"/>
+      <c r="N2" s="87" t="s">
+        <v>52</v>
+      </c>
       <c r="O2" s="53"/>
       <c r="P2" s="51" t="s">
         <v>40</v>
@@ -6481,14 +6538,16 @@
         <f aca="false">D3*J3</f>
         <v>0.225</v>
       </c>
-      <c r="G3" s="58"/>
+      <c r="G3" s="58" t="n">
+        <v>0.39</v>
+      </c>
       <c r="H3" s="59" t="n">
         <f aca="false">IF(G3=0,,G3/C3)</f>
-        <v>0</v>
+        <v>0.0866666666666667</v>
       </c>
       <c r="I3" s="60" t="n">
         <f aca="false">G3-F3</f>
-        <v>-0.225</v>
+        <v>0.165</v>
       </c>
       <c r="J3" s="61" t="n">
         <f aca="false">Diretrizes!E4</f>
@@ -6499,14 +6558,14 @@
       <c r="M3" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="N3" s="88"/>
+      <c r="N3" s="89"/>
       <c r="O3" s="63"/>
       <c r="P3" s="51" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q3" s="64" t="n">
         <f aca="false">SUM(G3:G401)+Q2</f>
-        <v>4.5</v>
+        <v>-0.0400000000000009</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6515,7 +6574,7 @@
       </c>
       <c r="C4" s="65" t="n">
         <f aca="false">IF(G3&lt;&gt;0,C3+G3,)</f>
-        <v>0</v>
+        <v>4.89</v>
       </c>
       <c r="D4" s="66" t="n">
         <f aca="false">D3*(1+J3)</f>
@@ -6523,20 +6582,22 @@
       </c>
       <c r="E4" s="65" t="n">
         <f aca="false">C4*J4</f>
-        <v>0</v>
+        <v>0.2383875</v>
       </c>
       <c r="F4" s="66" t="n">
         <f aca="false">D4*J4</f>
         <v>0.23034375</v>
       </c>
-      <c r="G4" s="58"/>
+      <c r="G4" s="58" t="n">
+        <v>0.52</v>
+      </c>
       <c r="H4" s="67" t="n">
         <f aca="false">IF(G4=0,,G4/C4)</f>
-        <v>0</v>
+        <v>0.106339468302659</v>
       </c>
       <c r="I4" s="68" t="n">
         <f aca="false">IF(G4=0,,G4-F4)</f>
-        <v>0</v>
+        <v>0.28965625</v>
       </c>
       <c r="J4" s="61" t="n">
         <f aca="false">J3*(1-Diretrizes!E$5)</f>
@@ -6551,11 +6612,11 @@
       <c r="N4" s="63"/>
       <c r="O4" s="53"/>
       <c r="P4" s="51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q4" s="64" t="n">
         <f aca="false">Q3-Q2</f>
-        <v>0</v>
+        <v>-4.54</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6564,7 +6625,7 @@
       </c>
       <c r="C5" s="65" t="n">
         <f aca="false">IF(G4&lt;&gt;0,C4+G4,)</f>
-        <v>0</v>
+        <v>5.41</v>
       </c>
       <c r="D5" s="66" t="n">
         <f aca="false">D4*(1+J4)</f>
@@ -6572,20 +6633,22 @@
       </c>
       <c r="E5" s="65" t="n">
         <f aca="false">C5*J5</f>
-        <v>0</v>
+        <v>0.2571440625</v>
       </c>
       <c r="F5" s="66" t="n">
         <f aca="false">D5*J5</f>
         <v>0.235533682617188</v>
       </c>
-      <c r="G5" s="58"/>
+      <c r="G5" s="58" t="n">
+        <v>0.94</v>
+      </c>
       <c r="H5" s="67" t="n">
         <f aca="false">IF(G5=0,,G5/C5)</f>
-        <v>0</v>
+        <v>0.173752310536044</v>
       </c>
       <c r="I5" s="68" t="n">
         <f aca="false">IF(G5=0,,G5-F5)</f>
-        <v>0</v>
+        <v>0.704466317382812</v>
       </c>
       <c r="J5" s="61" t="n">
         <f aca="false">J4*(1-Diretrizes!E$5)</f>
@@ -6597,19 +6660,19 @@
       </c>
       <c r="L5" s="62"/>
       <c r="M5" s="51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N5" s="54" t="n">
         <f aca="false">N6+Q2</f>
-        <v>4.5</v>
+        <v>-0.0400000000000009</v>
       </c>
       <c r="O5" s="53"/>
       <c r="P5" s="51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q5" s="69" t="n">
         <f aca="false">Q3/(Q2)-1</f>
-        <v>0</v>
+        <v>-1.00888888888889</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6618,7 +6681,7 @@
       </c>
       <c r="C6" s="65" t="n">
         <f aca="false">IF(G5&lt;&gt;0,C5+G5,)</f>
-        <v>0</v>
+        <v>6.35</v>
       </c>
       <c r="D6" s="66" t="n">
         <f aca="false">D5*(1+J5)</f>
@@ -6626,20 +6689,22 @@
       </c>
       <c r="E6" s="65" t="n">
         <f aca="false">C6*J6</f>
-        <v>0</v>
+        <v>0.2942778515625</v>
       </c>
       <c r="F6" s="66" t="n">
         <f aca="false">D6*J6</f>
         <v>0.240560670644859</v>
       </c>
-      <c r="G6" s="58"/>
+      <c r="G6" s="58" t="n">
+        <v>0.74</v>
+      </c>
       <c r="H6" s="67" t="n">
         <f aca="false">IF(G6=0,,G6/C6)</f>
-        <v>0</v>
+        <v>0.116535433070866</v>
       </c>
       <c r="I6" s="68" t="n">
         <f aca="false">IF(G6=0,,G6-F6)</f>
-        <v>0</v>
+        <v>0.499439329355141</v>
       </c>
       <c r="J6" s="61" t="n">
         <f aca="false">J5*(1-Diretrizes!E$5)</f>
@@ -6651,11 +6716,11 @@
       </c>
       <c r="L6" s="62"/>
       <c r="M6" s="51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N6" s="64" t="n">
         <f aca="false">SUM(G3:G25)</f>
-        <v>0</v>
+        <v>-4.54</v>
       </c>
       <c r="O6" s="70"/>
       <c r="P6" s="71"/>
@@ -6667,7 +6732,7 @@
       </c>
       <c r="C7" s="65" t="n">
         <f aca="false">IF(G6&lt;&gt;0,C6+G6,)</f>
-        <v>0</v>
+        <v>7.09</v>
       </c>
       <c r="D7" s="66" t="n">
         <f aca="false">D6*(1+J6)</f>
@@ -6675,20 +6740,22 @@
       </c>
       <c r="E7" s="65" t="n">
         <f aca="false">C7*J7</f>
-        <v>0</v>
+        <v>0.320357357226562</v>
       </c>
       <c r="F7" s="66" t="n">
         <f aca="false">D7*J7</f>
         <v>0.245416242129856</v>
       </c>
-      <c r="G7" s="58"/>
+      <c r="G7" s="58" t="n">
+        <v>0.49</v>
+      </c>
       <c r="H7" s="67" t="n">
         <f aca="false">IF(G7=0,,G7/C7)</f>
-        <v>0</v>
+        <v>0.0691114245416079</v>
       </c>
       <c r="I7" s="68" t="n">
         <f aca="false">IF(G7=0,,G7-F7)</f>
-        <v>0</v>
+        <v>0.244583757870144</v>
       </c>
       <c r="J7" s="61" t="n">
         <f aca="false">J6*(1-Diretrizes!E$5)</f>
@@ -6700,19 +6767,19 @@
       </c>
       <c r="L7" s="62"/>
       <c r="M7" s="51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N7" s="69" t="n">
         <f aca="false">N5/Q2-1</f>
-        <v>0</v>
+        <v>-1.00888888888889</v>
       </c>
       <c r="O7" s="70"/>
       <c r="P7" s="51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="72" t="n">
         <f aca="false">SUM(I3:I401)</f>
-        <v>-0.225</v>
+        <v>-6.22152955312048</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6721,7 +6788,7 @@
       </c>
       <c r="C8" s="65" t="n">
         <f aca="false">IF(G7&lt;&gt;0,C7+G7,)</f>
-        <v>0</v>
+        <v>7.58</v>
       </c>
       <c r="D8" s="66" t="n">
         <f aca="false">D7*(1+J7)</f>
@@ -6729,20 +6796,22 @@
       </c>
       <c r="E8" s="65" t="n">
         <f aca="false">C8*J8</f>
-        <v>0</v>
+        <v>0.333935267783203</v>
       </c>
       <c r="F8" s="66" t="n">
         <f aca="false">D8*J8</f>
         <v>0.250092595777663</v>
       </c>
-      <c r="G8" s="58"/>
+      <c r="G8" s="58" t="n">
+        <v>-0.14</v>
+      </c>
       <c r="H8" s="67" t="n">
         <f aca="false">IF(G8=0,,G8/C8)</f>
-        <v>0</v>
+        <v>-0.0184696569920844</v>
       </c>
       <c r="I8" s="68" t="n">
         <f aca="false">IF(G8=0,,G8-F8)</f>
-        <v>0</v>
+        <v>-0.390092595777663</v>
       </c>
       <c r="J8" s="61" t="n">
         <f aca="false">J7*(1-Diretrizes!E$5)</f>
@@ -6765,7 +6834,7 @@
       </c>
       <c r="C9" s="65" t="n">
         <f aca="false">IF(G8&lt;&gt;0,C8+G8,)</f>
-        <v>0</v>
+        <v>7.44</v>
       </c>
       <c r="D9" s="66" t="n">
         <f aca="false">D8*(1+J8)</f>
@@ -6773,20 +6842,22 @@
       </c>
       <c r="E9" s="65" t="n">
         <f aca="false">C9*J9</f>
-        <v>0</v>
+        <v>0.319573407981445</v>
       </c>
       <c r="F9" s="66" t="n">
         <f aca="false">D9*J9</f>
         <v>0.254582611950909</v>
       </c>
-      <c r="G9" s="58"/>
+      <c r="G9" s="58" t="n">
+        <v>-7.48</v>
+      </c>
       <c r="H9" s="67" t="n">
         <f aca="false">IF(G9=0,,G9/C9)</f>
-        <v>0</v>
+        <v>-1.00537634408602</v>
       </c>
       <c r="I9" s="68" t="n">
         <f aca="false">IF(G9=0,,G9-F9)</f>
-        <v>0</v>
+        <v>-7.73458261195091</v>
       </c>
       <c r="J9" s="61" t="n">
         <f aca="false">J8*(1-Diretrizes!E$5)</f>
@@ -6798,7 +6869,7 @@
       </c>
       <c r="L9" s="62"/>
       <c r="M9" s="51" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N9" s="73" t="n">
         <f aca="false">Diretrizes!E7</f>
@@ -6806,11 +6877,11 @@
       </c>
       <c r="O9" s="53"/>
       <c r="P9" s="51" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q9" s="73" t="n">
         <f aca="false">IF(G3=0,,N5-'Ciclo 4'!Q2)</f>
-        <v>0</v>
+        <v>-6.04</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6819,7 +6890,7 @@
       </c>
       <c r="C10" s="65" t="n">
         <f aca="false">IF(G9&lt;&gt;0,C9+G9,)</f>
-        <v>0</v>
+        <v>-0.0399999999999991</v>
       </c>
       <c r="D10" s="66" t="n">
         <f aca="false">D9*(1+J9)</f>
@@ -6827,7 +6898,7 @@
       </c>
       <c r="E10" s="65" t="n">
         <f aca="false">C10*J10</f>
-        <v>0</v>
+        <v>-0.00167518318699948</v>
       </c>
       <c r="F10" s="66" t="n">
         <f aca="false">D10*J10</f>
@@ -8741,7 +8812,7 @@
         <f aca="false">IF(G51&lt;&gt;0,C51+G51,)</f>
         <v>0</v>
       </c>
-      <c r="D52" s="82" t="n">
+      <c r="D52" s="84" t="n">
         <f aca="false">D51*(1+J51)</f>
         <v>18.2284171302929</v>
       </c>
@@ -8749,18 +8820,18 @@
         <f aca="false">C52*J52</f>
         <v>0</v>
       </c>
-      <c r="F52" s="82" t="n">
+      <c r="F52" s="84" t="n">
         <f aca="false">D52*J52</f>
         <v>0.263599833602561</v>
       </c>
       <c r="G52" s="58" t="n">
         <v>0</v>
       </c>
-      <c r="H52" s="84" t="n">
+      <c r="H52" s="85" t="n">
         <f aca="false">IF(G52=0,,G52/C52)</f>
         <v>0</v>
       </c>
-      <c r="I52" s="85" t="n">
+      <c r="I52" s="86" t="n">
         <f aca="false">IF(G52=0,,G52-F52)</f>
         <v>0</v>
       </c>
@@ -8853,7 +8924,7 @@
       <c r="M2" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="N2" s="86"/>
+      <c r="N2" s="87"/>
       <c r="O2" s="53"/>
       <c r="P2" s="51" t="s">
         <v>40</v>
@@ -8901,10 +8972,10 @@
       <c r="M3" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="N3" s="88"/>
+      <c r="N3" s="89"/>
       <c r="O3" s="63"/>
       <c r="P3" s="51" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q3" s="64" t="n">
         <f aca="false">SUM(G3:G402)+Q2</f>
@@ -8953,7 +9024,7 @@
       <c r="N4" s="63"/>
       <c r="O4" s="53"/>
       <c r="P4" s="51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q4" s="64" t="n">
         <f aca="false">Q3-Q2</f>
@@ -8999,7 +9070,7 @@
       </c>
       <c r="L5" s="62"/>
       <c r="M5" s="51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N5" s="54" t="n">
         <f aca="false">N6+Q2</f>
@@ -9007,7 +9078,7 @@
       </c>
       <c r="O5" s="53"/>
       <c r="P5" s="51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q5" s="69" t="n">
         <f aca="false">Q3/(Q2)-1</f>
@@ -9053,7 +9124,7 @@
       </c>
       <c r="L6" s="62"/>
       <c r="M6" s="51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N6" s="64" t="n">
         <f aca="false">SUM(G3:G25)</f>
@@ -9102,7 +9173,7 @@
       </c>
       <c r="L7" s="62"/>
       <c r="M7" s="51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N7" s="69" t="n">
         <f aca="false">N5/Q2-1</f>
@@ -9110,7 +9181,7 @@
       </c>
       <c r="O7" s="70"/>
       <c r="P7" s="51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="72" t="n">
         <f aca="false">SUM(I3:I402)</f>
@@ -9200,7 +9271,7 @@
       </c>
       <c r="L9" s="62"/>
       <c r="M9" s="51" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N9" s="73" t="n">
         <f aca="false">Diretrizes!F7</f>
@@ -9208,7 +9279,7 @@
       </c>
       <c r="O9" s="53"/>
       <c r="P9" s="51" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q9" s="73" t="n">
         <f aca="false">IF(G3=0,,N5-'Ciclo 5'!Q2)</f>
@@ -11137,7 +11208,7 @@
         <f aca="false">IF(G51&lt;&gt;0,C51+G51,)</f>
         <v>0</v>
       </c>
-      <c r="D52" s="82" t="n">
+      <c r="D52" s="84" t="n">
         <f aca="false">D51*(1+J51)</f>
         <v>24.3045561737238</v>
       </c>
@@ -11145,18 +11216,18 @@
         <f aca="false">C52*J52</f>
         <v>0</v>
       </c>
-      <c r="F52" s="82" t="n">
+      <c r="F52" s="84" t="n">
         <f aca="false">D52*J52</f>
         <v>0.351466444803415</v>
       </c>
       <c r="G52" s="58" t="n">
         <v>0</v>
       </c>
-      <c r="H52" s="84" t="n">
+      <c r="H52" s="85" t="n">
         <f aca="false">IF(G52=0,,G52/C52)</f>
         <v>0</v>
       </c>
-      <c r="I52" s="85" t="n">
+      <c r="I52" s="86" t="n">
         <f aca="false">IF(G52=0,,G52-F52)</f>
         <v>0</v>
       </c>
@@ -11249,7 +11320,7 @@
       <c r="M2" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="N2" s="86"/>
+      <c r="N2" s="87"/>
       <c r="O2" s="53"/>
       <c r="P2" s="51" t="s">
         <v>40</v>
@@ -11299,10 +11370,10 @@
       <c r="M3" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="N3" s="88"/>
+      <c r="N3" s="89"/>
       <c r="O3" s="63"/>
       <c r="P3" s="51" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q3" s="64" t="n">
         <v>9</v>
@@ -11352,7 +11423,7 @@
       <c r="N4" s="63"/>
       <c r="O4" s="53"/>
       <c r="P4" s="51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q4" s="64" t="n">
         <f aca="false">Q3-Q2</f>
@@ -11400,7 +11471,7 @@
       </c>
       <c r="L5" s="62"/>
       <c r="M5" s="51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N5" s="54" t="n">
         <f aca="false">N6+Q2</f>
@@ -11408,7 +11479,7 @@
       </c>
       <c r="O5" s="53"/>
       <c r="P5" s="51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q5" s="69" t="n">
         <f aca="false">Q3/(Q2)-1</f>
@@ -11456,7 +11527,7 @@
       </c>
       <c r="L6" s="62"/>
       <c r="M6" s="51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N6" s="64" t="n">
         <f aca="false">SUM(G3:G25)</f>
@@ -11507,7 +11578,7 @@
       </c>
       <c r="L7" s="62"/>
       <c r="M7" s="51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N7" s="69" t="n">
         <f aca="false">N5/Q2-1</f>
@@ -11515,7 +11586,7 @@
       </c>
       <c r="O7" s="70"/>
       <c r="P7" s="51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="72" t="n">
         <f aca="false">SUM(I3:I401)</f>
@@ -11609,7 +11680,7 @@
       </c>
       <c r="L9" s="62"/>
       <c r="M9" s="51" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N9" s="73" t="n">
         <f aca="false">Diretrizes!G7</f>
@@ -11617,7 +11688,7 @@
       </c>
       <c r="O9" s="53"/>
       <c r="P9" s="51" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q9" s="73" t="n">
         <f aca="false">IF(G3=0,,N5)</f>
@@ -11632,7 +11703,7 @@
         <f aca="false">IF(G9&lt;&gt;0,C9+G9,)</f>
         <v>0</v>
       </c>
-      <c r="D10" s="89" t="n">
+      <c r="D10" s="90" t="n">
         <f aca="false">D9*(1+J9)</f>
         <v>12.363059106241</v>
       </c>
@@ -13556,7 +13627,7 @@
         <f aca="false">IF(G51&lt;&gt;0,C51+G51,)</f>
         <v>0</v>
       </c>
-      <c r="D52" s="82" t="n">
+      <c r="D52" s="84" t="n">
         <f aca="false">D51*(1+J51)</f>
         <v>36.4568342605857</v>
       </c>
@@ -13564,18 +13635,18 @@
         <f aca="false">C52*J52</f>
         <v>0</v>
       </c>
-      <c r="F52" s="82" t="n">
+      <c r="F52" s="84" t="n">
         <f aca="false">D52*J52</f>
         <v>0.527199667205122</v>
       </c>
       <c r="G52" s="58" t="n">
         <v>0</v>
       </c>
-      <c r="H52" s="84" t="n">
+      <c r="H52" s="85" t="n">
         <f aca="false">IF(G52=0,,G52/C52)</f>
         <v>0</v>
       </c>
-      <c r="I52" s="85" t="n">
+      <c r="I52" s="86" t="n">
         <f aca="false">IF(G52=0,,G52-F52)</f>
         <v>0</v>
       </c>
